--- a/TABLAS.xlsx
+++ b/TABLAS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bladimir\Documents\Lenguajes\Practica1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E20B79E6-4146-4C20-83B0-C5662250E626}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEECC387-5C76-40C6-83A1-E252CE470201}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{227B3169-0773-4B14-8BD0-EE9900D92170}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{227B3169-0773-4B14-8BD0-EE9900D92170}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -282,9 +282,6 @@
     <t>6,7,113</t>
   </si>
   <si>
-    <t>S3</t>
-  </si>
-  <si>
     <t>S2</t>
   </si>
   <si>
@@ -352,6 +349,9 @@
   </si>
   <si>
     <t>S48</t>
+  </si>
+  <si>
+    <t>s1</t>
   </si>
 </sst>
 </file>
@@ -505,19 +505,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F49918C2-2693-4A1F-B772-128CF4F2650C}" name="Tabla1" displayName="Tabla1" ref="A1:J118" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F49918C2-2693-4A1F-B772-128CF4F2650C}" name="Tabla1" displayName="Tabla1" ref="A1:J118" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A1:J118" xr:uid="{25C35FE9-FC58-45B7-9F37-5684C289F2A1}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{2C6E6047-0E0F-48F0-B96E-76EC70BC50CC}" name="Columna1" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{7F674157-164E-42DD-96BF-9C2432C47E3C}" name="Columna2" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{EFAD075C-DC2A-4709-B5AA-702B9E2E6CA0}" name="Columna3" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{F0114399-AF8D-44E6-BC8A-0D98B2D0AE14}" name="Columna4" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{D92D50E7-513A-43D9-B411-DDFD2387F46B}" name="Columna5" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{73C94D21-CD16-49DD-AD88-4903F802D545}" name="Columna6" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{837042BD-9D1C-499C-9E58-B819EB309626}" name="Columna7" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{74C2C9BD-3771-4C94-88D7-CD7A93F9A7A2}" name="Columna8" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{047D6A42-CDBB-4064-80C6-75C34EDBBD70}" name="Columna9" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{C5D9F08B-E67C-40A8-BF6E-2A367932B190}" name="Columna10" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{2C6E6047-0E0F-48F0-B96E-76EC70BC50CC}" name="Columna1" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{7F674157-164E-42DD-96BF-9C2432C47E3C}" name="Columna2" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{EFAD075C-DC2A-4709-B5AA-702B9E2E6CA0}" name="Columna3" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{F0114399-AF8D-44E6-BC8A-0D98B2D0AE14}" name="Columna4" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{D92D50E7-513A-43D9-B411-DDFD2387F46B}" name="Columna5" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{73C94D21-CD16-49DD-AD88-4903F802D545}" name="Columna6" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{837042BD-9D1C-499C-9E58-B819EB309626}" name="Columna7" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{74C2C9BD-3771-4C94-88D7-CD7A93F9A7A2}" name="Columna8" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{047D6A42-CDBB-4064-80C6-75C34EDBBD70}" name="Columna9" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{C5D9F08B-E67C-40A8-BF6E-2A367932B190}" name="Columna10" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -822,8 +822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9AE6CB5-B154-4D5D-B267-601D59AC793B}">
   <dimension ref="A1:J118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -838,34 +838,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -920,10 +920,10 @@
         <v>45</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -952,7 +952,7 @@
         <v>3</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J6" s="1"/>
     </row>
@@ -980,7 +980,7 @@
         <v>3.113</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>47</v>
@@ -1008,7 +1008,7 @@
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J8" s="1"/>
     </row>
@@ -1034,7 +1034,7 @@
         <v>6.7</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="J9" s="1"/>
     </row>
@@ -3024,7 +3024,7 @@
       </c>
       <c r="H86" s="1"/>
       <c r="I86" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J86" s="1"/>
     </row>
@@ -3098,7 +3098,7 @@
       </c>
       <c r="H89" s="1"/>
       <c r="I89" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J89" s="1"/>
     </row>
@@ -3172,7 +3172,7 @@
       </c>
       <c r="H92" s="1"/>
       <c r="I92" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J92" s="1"/>
     </row>
@@ -3392,7 +3392,7 @@
       </c>
       <c r="H101" s="1"/>
       <c r="I101" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J101" s="1"/>
     </row>
@@ -3560,7 +3560,7 @@
       </c>
       <c r="H108" s="1"/>
       <c r="I108" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J108" s="1"/>
     </row>
@@ -3584,7 +3584,7 @@
       </c>
       <c r="H109" s="1"/>
       <c r="I109" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J109" s="1"/>
     </row>
@@ -3608,7 +3608,7 @@
       </c>
       <c r="H110" s="1"/>
       <c r="I110" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J110" s="1"/>
     </row>
@@ -3632,7 +3632,7 @@
       </c>
       <c r="H111" s="1"/>
       <c r="I111" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J111" s="1"/>
     </row>
@@ -3682,7 +3682,7 @@
       </c>
       <c r="H113" s="1"/>
       <c r="I113" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J113" s="1"/>
     </row>
@@ -3706,7 +3706,7 @@
       </c>
       <c r="H114" s="1"/>
       <c r="I114" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J114" s="1"/>
     </row>
@@ -3730,7 +3730,7 @@
       </c>
       <c r="H115" s="1"/>
       <c r="I115" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J115" s="1"/>
     </row>
@@ -3754,7 +3754,7 @@
       </c>
       <c r="H116" s="1"/>
       <c r="I116" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J116" s="1"/>
     </row>
@@ -3778,7 +3778,7 @@
       </c>
       <c r="H117" s="1"/>
       <c r="I117" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>47</v>
